--- a/biology/Botanique/Bulliarde_de_Vaillant/Bulliarde_de_Vaillant.xlsx
+++ b/biology/Botanique/Bulliarde_de_Vaillant/Bulliarde_de_Vaillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulliarde de Vaillant, Crassule de Vaillant
 Crassula vaillantii, de noms communs Bulliarde de Vaillant, Crassule de Vaillant, est une espèce de plantes à fleurs annuelle de la famille des Crassulaceae et du genre Crassula.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante annuelle de petite taille (2–6 cm), à racine principale développée et à tiges dressées ou ascendantes, radicantes aux nœuds. Les feuilles sont opposées, réunies par leur base, charnues, presque planes, étroites et obtuses, souvent rougeâtres[3]. 
-Appareil reproducteur
-Les fleurs sont rosées, à pédicelles plus long que les feuilles, groupées en cymes irrégulières ; il y a quatre sépales ovales présentant une petite pointe à leur sommet, quatre pétales plus étroits, quatre étamines et quatre carpelles non rétrécis, présentant des écailles nectarifères bien développées ; le fruit se compose de quatre follicules. La floraison est estivale (entre juin et août)[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle de petite taille (2–6 cm), à racine principale développée et à tiges dressées ou ascendantes, radicantes aux nœuds. Les feuilles sont opposées, réunies par leur base, charnues, presque planes, étroites et obtuses, souvent rougeâtres. 
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thérophyte, la plante peut former des petits gazons lâches. C'est une espèce des lieux sablonneux humides et des rochers plats exondés l'été, sur terrains siliceux, uniquement en plaine, jusqu'à 300 m d'altitude[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont rosées, à pédicelles plus long que les feuilles, groupées en cymes irrégulières ; il y a quatre sépales ovales présentant une petite pointe à leur sommet, quatre pétales plus étroits, quatre étamines et quatre carpelles non rétrécis, présentant des écailles nectarifères bien développées ; le fruit se compose de quatre follicules. La floraison est estivale (entre juin et août).
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est largement répandue : elle est présente au sud-ouest et au sud de l'Europe, dans une grande partie de l'Afrique, du Maghreb à l’Éthiopie et au Cap, en Asie mineure et centrale, en Amérique du nord. Elle est très rare en France, souvent très localisée : on la rencontre en Lorraine, en Île-de-France (sud de l'Essonne et de la Seine-et-Marne, dans le Centre-Val-de-Loire, l'Ouest et le Midi[3].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thérophyte, la plante peut former des petits gazons lâches. C'est une espèce des lieux sablonneux humides et des rochers plats exondés l'été, sur terrains siliceux, uniquement en plaine, jusqu'à 300 m d'altitude.
 </t>
         </is>
       </c>
@@ -605,12 +628,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est largement répandue : elle est présente au sud-ouest et au sud de l'Europe, dans une grande partie de l'Afrique, du Maghreb à l’Éthiopie et au Cap, en Asie mineure et centrale, en Amérique du nord. Elle est très rare en France, souvent très localisée : on la rencontre en Lorraine, en Île-de-France (sud de l'Essonne et de la Seine-et-Marne, dans le Centre-Val-de-Loire, l'Ouest et le Midi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bulliarde_de_Vaillant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bulliarde_de_Vaillant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante de petite taille et à éclipse se montre d'observation difficile. La rudéralisation, par enrichissement en nitrates ou par remblais en matériaux calcaires, a un effet irréversible. L'atténuation de la luminosité (par boisement de la lande) ou l'assèchement temporaire provoquent l'invasion d'autres espèces à fort dynamisme et la disparition de la Crassule de Vaillant. Mais cette disparition est souvent temporaire, car la plante peut réapparaître de nombreuses années plus tard, après un retour à des conditions favorables[3]. L'espèce est classée « en danger critique d'extinction » (CR) en Auvergne, Centre Val de Loire, Île de France, Pays de la Loire et « en danger » (EN) en Rhône-Alpes[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de petite taille et à éclipse se montre d'observation difficile. La rudéralisation, par enrichissement en nitrates ou par remblais en matériaux calcaires, a un effet irréversible. L'atténuation de la luminosité (par boisement de la lande) ou l'assèchement temporaire provoquent l'invasion d'autres espèces à fort dynamisme et la disparition de la Crassule de Vaillant. Mais cette disparition est souvent temporaire, car la plante peut réapparaître de nombreuses années plus tard, après un retour à des conditions favorables. L'espèce est classée « en danger critique d'extinction » (CR) en Auvergne, Centre Val de Loire, Île de France, Pays de la Loire et « en danger » (EN) en Rhône-Alpes.
 </t>
         </is>
       </c>
